--- a/va_facility_data_2025-02-20/Gladstone VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gladstone%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gladstone VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gladstone%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rda26f54ddcba44afa2ff65e71faa70e4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R11c39c9887794db8bdcd722999e0c911"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1534535c272749b2b496111c6fe91b8b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R74c727a3ea794e04bb5c1fd440906634"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1a94f6ccf59444ddbbafc5d42cd0d341"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R214b33dc44ac4bd6ac9064ce7e662251"/>
   </x:sheets>
 </x:workbook>
 </file>
